--- a/ApolloQA/Data/RatingManual/GA/OR00008.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/OR00008.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00008" sheetId="1" r:id="R4399a94f120c4ff8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00008" sheetId="1" r:id="Rbc956a33374a4558"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -26,7 +26,7 @@
         <x:v/>
       </x:c>
       <x:c t="str">
-        <x:v>OR00008.BaseRateFactors</x:v>
+        <x:v>Pollution Coverage Exposure Base</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
@@ -37,10 +37,98 @@
         <x:v>x</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>OR00008.FleetSizeFactors</x:v>
+        <x:v>OR00023.BaseRateFactors</x:v>
       </x:c>
       <x:c t="str">
         <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>OR00023.IsLoadingAndUnloadingFactors</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Round [0]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>=</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Manual Basic Limits Premium</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Increased Limit Factor</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>SR.1</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Round [0]</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>=</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Manual Premium</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Schedule Rating</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>SR.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>x</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Renewal Rate Cap</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>SR.5</x:v>
       </x:c>
     </x:row>
     <x:row>
